--- a/tester.xlsx
+++ b/tester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repor\azure\autoWP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA071A62-A907-4EB3-BB2E-827D87158853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304DF2BC-65DE-46A7-9F9B-73E41D8F24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{78BC1C0C-F4E3-4095-AABE-B93264C45B78}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Title</t>
   </si>
   <si>
-    <t>what is your name</t>
+    <t>Engaging from the first line</t>
   </si>
   <si>
-    <t>what is your address</t>
+    <t>Keeping reader engaged</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repor\azure\autoWP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304DF2BC-65DE-46A7-9F9B-73E41D8F24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE1E41-0558-4A7F-AB60-2A80D471CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{78BC1C0C-F4E3-4095-AABE-B93264C45B78}"/>
   </bookViews>
@@ -419,10 +419,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
